--- a/Fonctionnalité.xlsx
+++ b/Fonctionnalité.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t xml:space="preserve">Marketing </t>
   </si>
@@ -461,6 +461,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,50 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -529,6 +529,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -577,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,7 +615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,155 +827,155 @@
   <dimension ref="B1:AF29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="27.28515625" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" customWidth="1"/>
+    <col min="10" max="10" width="27.265625" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" customWidth="1"/>
+    <col min="12" max="12" width="12.1328125" customWidth="1"/>
+    <col min="13" max="13" width="27.265625" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" customWidth="1"/>
+    <col min="15" max="15" width="12.1328125" customWidth="1"/>
+    <col min="16" max="16" width="27.265625" customWidth="1"/>
+    <col min="17" max="17" width="9.1328125" customWidth="1"/>
+    <col min="18" max="18" width="12.1328125" customWidth="1"/>
+    <col min="19" max="19" width="27.265625" customWidth="1"/>
+    <col min="20" max="20" width="9.1328125" customWidth="1"/>
+    <col min="21" max="21" width="12.1328125" customWidth="1"/>
+    <col min="22" max="22" width="27.265625" customWidth="1"/>
+    <col min="23" max="23" width="9.1328125" customWidth="1"/>
+    <col min="24" max="24" width="12.1328125" customWidth="1"/>
+    <col min="25" max="25" width="27.265625" customWidth="1"/>
+    <col min="26" max="26" width="9.1328125" customWidth="1"/>
+    <col min="27" max="27" width="12.1328125" customWidth="1"/>
     <col min="30" max="32" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="2:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="5" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="5" t="s">
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="5" t="s">
+      <c r="W2" s="20"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="7"/>
-    </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="8" t="s">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="21"/>
+    </row>
+    <row r="3" spans="2:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="6" t="s">
         <v>65</v>
       </c>
       <c r="AD3" t="s">
@@ -985,645 +988,647 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="17">
         <v>42085</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="10"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="10"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="10"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="7"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="10"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="7"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="11"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B5" s="22"/>
+      <c r="C5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="10"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="7"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="10"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="11"/>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B6" s="22"/>
+      <c r="C6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="17">
         <v>42085</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="10"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="10"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="7"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="10"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="11"/>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B7" s="22"/>
+      <c r="C7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="7" t="s">
         <v>62</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="10"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="10"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="7"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="10"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="17">
         <v>42085</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="10"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="10"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="7"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="10"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="7"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="11"/>
-    </row>
-    <row r="9" spans="2:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="2:32" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="22"/>
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10" t="s">
+      <c r="O9" s="8"/>
+      <c r="P9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="10"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="7"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="10"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="7"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="10"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="7"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="11"/>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B10" s="22"/>
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="10"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="10"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="7"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="10"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="7"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="11"/>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B11" s="22"/>
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="10"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="7"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="10"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="7"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="10"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="7"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="11"/>
-    </row>
-    <row r="12" spans="2:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="2:32" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="10"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="10"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="10"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="7"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="10"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="7"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="11"/>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="7"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="10"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="7"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="10"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="7"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="11"/>
-    </row>
-    <row r="14" spans="2:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="2:32" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="10"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="10"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="10"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="7"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="10"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="11"/>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B15" s="22"/>
+      <c r="C15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="10"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="10"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="10"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="10"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="7"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="10"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="7"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="10"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="7"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="11"/>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="10"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="10"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="10"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="10"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="10"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="10"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="11"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B17" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="17">
         <v>42078</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="10"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="10"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="10"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="7"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="10"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="11"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B18" s="22"/>
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="10"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="7"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="10"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="7"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="10"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="7"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="10"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="7"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="11"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16" t="s">
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B19" s="22"/>
+      <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="10"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="7"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="10"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="10"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="10"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="11"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16" t="s">
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B20" s="22"/>
+      <c r="C20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="10"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="7"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="10"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="7"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="10"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="7"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="10"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="11"/>
-    </row>
-    <row r="21" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+      <c r="AA20" s="8"/>
+    </row>
+    <row r="21" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -1651,7 +1656,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.45">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1677,7 +1682,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>67</v>
       </c>
@@ -1685,25 +1690,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E21 H4:H21 K4:K21 N4:N21 Q4:Q21 T4:T21 W4:W21 Z4:Z21">
@@ -1721,7 +1726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1733,7 +1738,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fonctionnalité.xlsx
+++ b/Fonctionnalité.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435"/>
@@ -580,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,43 +827,43 @@
   <dimension ref="B1:AF29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.265625" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" customWidth="1"/>
-    <col min="4" max="4" width="27.265625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" customWidth="1"/>
-    <col min="10" max="10" width="27.265625" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" customWidth="1"/>
-    <col min="12" max="12" width="12.1328125" customWidth="1"/>
-    <col min="13" max="13" width="27.265625" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" customWidth="1"/>
-    <col min="15" max="15" width="12.1328125" customWidth="1"/>
-    <col min="16" max="16" width="27.265625" customWidth="1"/>
-    <col min="17" max="17" width="9.1328125" customWidth="1"/>
-    <col min="18" max="18" width="12.1328125" customWidth="1"/>
-    <col min="19" max="19" width="27.265625" customWidth="1"/>
-    <col min="20" max="20" width="9.1328125" customWidth="1"/>
-    <col min="21" max="21" width="12.1328125" customWidth="1"/>
-    <col min="22" max="22" width="27.265625" customWidth="1"/>
-    <col min="23" max="23" width="9.1328125" customWidth="1"/>
-    <col min="24" max="24" width="12.1328125" customWidth="1"/>
-    <col min="25" max="25" width="27.265625" customWidth="1"/>
-    <col min="26" max="26" width="9.1328125" customWidth="1"/>
-    <col min="27" max="27" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="27.28515625" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
     <col min="30" max="32" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:32" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
@@ -905,7 +905,7 @@
       <c r="Z2" s="20"/>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="2:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
         <v>63</v>
       </c>
@@ -988,7 +988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="12" t="s">
         <v>49</v>
@@ -1058,7 +1058,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
         <v>50</v>
@@ -1072,7 +1072,9 @@
       <c r="F6" s="17">
         <v>42085</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>123</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
@@ -1094,7 +1096,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="12" t="s">
         <v>58</v>
@@ -1132,7 +1134,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1176,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="2:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:32" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="12" t="s">
         <v>21</v>
@@ -1216,7 +1218,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="12" t="s">
         <v>22</v>
@@ -1258,7 +1260,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="12" t="s">
         <v>34</v>
@@ -1288,7 +1290,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="2:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:32" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1326,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1362,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="2:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:32" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>3</v>
       </c>
@@ -1400,7 +1402,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="12" t="s">
         <v>2</v>
@@ -1430,7 +1432,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="12"/>
       <c r="D16" s="7"/>
@@ -1458,7 +1460,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1498,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="8"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="12" t="s">
         <v>30</v>
@@ -1530,7 +1532,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="8"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="12" t="s">
         <v>32</v>
@@ -1564,7 +1566,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="12" t="s">
         <v>27</v>
@@ -1628,7 +1630,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="11"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -1656,7 +1658,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1682,7 +1684,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>67</v>
       </c>
@@ -1690,25 +1692,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E21 H4:H21 K4:K21 N4:N21 Q4:Q21 T4:T21 W4:W21 Z4:Z21">
@@ -1726,7 +1728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1738,7 +1740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
